--- a/medicine/Sexualité et sexologie/Cinquante_Nuances/Cinquante_Nuances.xlsx
+++ b/medicine/Sexualité et sexologie/Cinquante_Nuances/Cinquante_Nuances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinquante Nuances (Fifty Shades) est une saga cinématographique américaine, composé de trois parties, soit Cinquante Nuances de Grey, réalisé par Sam Taylor-Johnson et sorti en 2015, Cinquante Nuances plus sombres, réalisé par James Foley et sorti en 2017 et Cinquante Nuances plus claires, réalisé par James Foley et sorti en 2018. Cette saga est directement inspirée de la série de romans érotiques écrits par E. L. James, Fifty Shades.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail du cinéma américain   Portail de la sexualité et de la sexologie                    </t>
         </is>
